--- a/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,68</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 4,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,82; 2,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,88; 11,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 4,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 4,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,46; 14,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,27; 4,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 2,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,31; 12,74</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>184,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>230,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>216,86%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 120,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,3; 62,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>109,91; 318,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,03; 99,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,58; 84,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>162,47; 326,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,14; 92,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 52,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>157,54; 282,03</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 2,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 1,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 4,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 1,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 1,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 4,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 1,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 1,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 4,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>253,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>163,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,16; 237,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 174,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>125,3; 475,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,09; 82,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,49; 51,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,18; 191,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,18; 110,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,1; 68,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,92; 264,07</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 3,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 2,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 5,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,74; 6,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 4,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 4,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 4,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,58; 2,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 4,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>267,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>136,48%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,65; 205,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,37; 119,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,4; 287,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,97; 889,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; 573,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,32; 772,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,22; 246,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,47; 145,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,88; 293,86</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,8; 4,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,78; 2,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 1,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,55; 5,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 2,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 0,98</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 4,91</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,29%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,17; 102,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,4; 46,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,35; 208,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,77; 83,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; 44,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,38; 180,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,82; 81,12</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 33,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,29; 171,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>8,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,68</t>
+          <t>12,89</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,05</t>
+          <t>11,08</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,56</t>
+          <t>5,77; 11,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,98</t>
+          <t>10,65; 15,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 12,74</t>
+          <t>9,37; 12,82</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>184,68%</t>
+          <t>183,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>230,04%</t>
+          <t>233,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>216,86%</t>
+          <t>217,56%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>109,91; 318,51</t>
+          <t>108,44; 318,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>162,47; 326,7</t>
+          <t>166,45; 333,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>157,54; 282,03</t>
+          <t>158,99; 283,6</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>2,88</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,7</t>
+          <t>1,76; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,12</t>
+          <t>0,74; 3,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,17</t>
+          <t>1,84; 3,86</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>253,54%</t>
+          <t>223,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>111,85%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>163,79%</t>
+          <t>143,14%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>125,3; 475,21</t>
+          <t>99,93; 444,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,18; 191,93</t>
+          <t>23,26; 171,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>102,92; 264,07</t>
+          <t>77,26; 236,99</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,96</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,22</t>
+          <t>0,68; 5,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,59; 4,89</t>
+          <t>1,55; 4,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,46</t>
+          <t>1,73; 4,41</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>102,13%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>224,28%</t>
+          <t>221,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>136,48%</t>
+          <t>134,5%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,4; 287,7</t>
+          <t>14,56; 281,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>56,32; 772,01</t>
+          <t>54,95; 762,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>52,88; 293,86</t>
+          <t>53,05; 291,15</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>3,82</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,69</t>
+          <t>1,9; 4,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,53</t>
+          <t>2,7; 5,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,51; 4,91</t>
+          <t>2,82; 4,59</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>142,53%</t>
+          <t>127,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>128,02%</t>
+          <t>117,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>135,29%</t>
+          <t>122,25%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>90,35; 208,03</t>
+          <t>62,21; 192,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>88,38; 180,11</t>
+          <t>72,17; 167,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>101,29; 171,52</t>
+          <t>84,37; 158,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,61</t>
+          <t>0,12; 4,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 2,08</t>
+          <t>-1,79; 2,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 11,42</t>
+          <t>5,73; 11,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,76</t>
+          <t>0,66; 4,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,12</t>
+          <t>-0,28; 4,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,65; 15,2</t>
+          <t>10,66; 15,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,12</t>
+          <t>1,2; 3,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 2,43</t>
+          <t>-0,43; 2,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,37; 12,82</t>
+          <t>9,19; 12,64</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 120,35</t>
+          <t>0,98; 121,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 62,82</t>
+          <t>-33,42; 54,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>108,44; 318,42</t>
+          <t>105,73; 297,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 99,64</t>
+          <t>9,58; 99,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 84,7</t>
+          <t>-4,96; 85,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>166,45; 333,72</t>
+          <t>158,26; 327,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,14; 92,01</t>
+          <t>21,27; 87,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 52,48</t>
+          <t>-7,46; 53,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>158,99; 283,6</t>
+          <t>157,9; 281,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,34</t>
+          <t>0,48; 2,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,8</t>
+          <t>0,02; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,37</t>
+          <t>1,69; 4,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,72</t>
+          <t>-0,58; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,09</t>
+          <t>-1,14; 1,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,72</t>
+          <t>0,71; 3,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,82</t>
+          <t>0,25; 1,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 1,16</t>
+          <t>-0,21; 1,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,86</t>
+          <t>1,82; 3,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,16; 237,91</t>
+          <t>17,71; 226,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 174,43</t>
+          <t>-3,93; 180,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>99,93; 444,57</t>
+          <t>93,3; 423,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 82,44</t>
+          <t>-19,8; 84,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,49; 51,01</t>
+          <t>-35,45; 52,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,26; 171,71</t>
+          <t>21,87; 175,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 110,81</t>
+          <t>8,67; 104,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 68,96</t>
+          <t>-9,11; 74,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,26; 236,99</t>
+          <t>77,51; 219,92</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,98</t>
+          <t>-1,51; 3,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 2,09</t>
+          <t>-2,51; 2,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,14</t>
+          <t>0,5; 4,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,54</t>
+          <t>1,63; 6,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,07</t>
+          <t>-0,03; 4,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,85</t>
+          <t>1,55; 4,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,01</t>
+          <t>0,43; 4,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,34</t>
+          <t>-0,68; 2,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,41</t>
+          <t>1,63; 4,21</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,65; 205,69</t>
+          <t>-42,42; 196,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 119,17</t>
+          <t>-64,02; 108,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,56; 281,07</t>
+          <t>6,48; 269,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>55,97; 889,6</t>
+          <t>56,04; 802,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 573,19</t>
+          <t>-15,49; 580,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>54,95; 762,48</t>
+          <t>46,43; 712,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 246,36</t>
+          <t>13,95; 259,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-22,47; 145,68</t>
+          <t>-26,72; 146,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>53,05; 291,15</t>
+          <t>48,61; 262,38</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,36</t>
+          <t>0,58; 2,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,09</t>
+          <t>-0,52; 1,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,45</t>
+          <t>1,96; 4,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,73</t>
+          <t>0,81; 2,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,48</t>
+          <t>-0,51; 1,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,26</t>
+          <t>2,84; 5,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,35</t>
+          <t>0,9; 2,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,98</t>
+          <t>-0,25; 1,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,59</t>
+          <t>2,9; 4,65</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,17; 102,19</t>
+          <t>18,29; 107,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 46,85</t>
+          <t>-17,11; 50,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>62,21; 192,83</t>
+          <t>66,71; 192,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,77; 83,03</t>
+          <t>18,66; 86,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 44,45</t>
+          <t>-12,26; 43,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,17; 167,29</t>
+          <t>66,75; 165,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,82; 81,12</t>
+          <t>26,11; 79,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 33,81</t>
+          <t>-7,45; 36,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>84,37; 158,41</t>
+          <t>83,8; 166,42</t>
         </is>
       </c>
     </row>
